--- a/Data/Input/listaEmpleados.xlsx
+++ b/Data/Input/listaEmpleados.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BeeckerCo\Documents\UiPath\EnvioNominas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Beecker\Documents\UiPath\RecibosNomina\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D2C272-AE35-453D-BB87-068D52C75456}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="BeeckerCo" sheetId="2" r:id="rId1"/>
@@ -585,7 +584,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -959,11 +958,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CB234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="30" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="30" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20240,7 +20239,7 @@
       <c r="BT234" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O81" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:O81">
     <sortState ref="A2:O81">
       <sortCondition ref="A1:A81"/>
     </sortState>
@@ -20254,11 +20253,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B2:B14"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20380,15 +20379,15 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1" xr:uid="{00000000-0009-0000-0000-000001000000}">
+  <autoFilter ref="A1:B1">
     <sortState ref="A2:B14">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="alberto.vazquez@" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="B11" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="B14" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="B2" r:id="rId1" display="alberto.vazquez@"/>
+    <hyperlink ref="B11" r:id="rId2"/>
+    <hyperlink ref="B14" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>
@@ -20396,7 +20395,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Data/Input/listaEmpleados.xlsx
+++ b/Data/Input/listaEmpleados.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BeeckerCo" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="94">
   <si>
     <t>Correo</t>
   </si>
@@ -41,13 +41,187 @@
     <t>Ariana Barrios Soriano</t>
   </si>
   <si>
-    <t>Mario Barrios Vasquez</t>
-  </si>
-  <si>
     <t>Alfredo Bobadilla Gutierrez</t>
   </si>
   <si>
+    <t>Ana Karen Cedillo Díaz</t>
+  </si>
+  <si>
+    <t>Andres Matias Gonzalez Marin</t>
+  </si>
+  <si>
+    <t>Arturo Magallanes Prado</t>
+  </si>
+  <si>
+    <t>Angelica Jhovana Moreno Jimenez</t>
+  </si>
+  <si>
+    <t>Alberto Pérez Díaz</t>
+  </si>
+  <si>
+    <t>Aida Montserrat Rodriguez Alvarado</t>
+  </si>
+  <si>
+    <t>Alan Eduardo Vega Mora</t>
+  </si>
+  <si>
+    <t>Nombres</t>
+  </si>
+  <si>
+    <t>Alberto Vazquez Chiquillo</t>
+  </si>
+  <si>
+    <t>Cynthia Itzel Betancourt Hernanadez</t>
+  </si>
+  <si>
+    <t>Diego Alejandro Rodriguez Rangel</t>
+  </si>
+  <si>
+    <t>Eduardo Ramirez Velazquez</t>
+  </si>
+  <si>
+    <t>isvi.acuna@beeckerco.com</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>Aylin Yatzel Castro Brito</t>
+  </si>
+  <si>
+    <t>Baltasa Roze Alejo</t>
+  </si>
+  <si>
+    <t>Brandon Ferrer Tapia</t>
+  </si>
+  <si>
+    <t>Bryan Alberto Gonzalez Rodriguez</t>
+  </si>
+  <si>
+    <t>Carlos Abraham Diaz Martinez</t>
+  </si>
+  <si>
+    <t>Carlos Adrian Carrillo Carrillo</t>
+  </si>
+  <si>
+    <t>Carlos Garet García Zaragoza</t>
+  </si>
+  <si>
+    <t>Cinthya Cruz Herrera</t>
+  </si>
+  <si>
+    <t>Cristian Martinez Acosta</t>
+  </si>
+  <si>
+    <t>David Israel Armendariz Navarrete</t>
+  </si>
+  <si>
+    <t>David Sanchez Martinez</t>
+  </si>
+  <si>
+    <t>Diana Laura Gutierrez Alvarez</t>
+  </si>
+  <si>
+    <t>Edgar Antonio Martinez Jimenez</t>
+  </si>
+  <si>
+    <t>Eduardo Flores Morales</t>
+  </si>
+  <si>
+    <t>Eliana Mariel Luna Ponce</t>
+  </si>
+  <si>
+    <t>Elias Ramses Villanueva Agüero</t>
+  </si>
+  <si>
+    <t>Erick Jesus Dublan Limon</t>
+  </si>
+  <si>
+    <t>Erick Jovani Sanchez Rodriguez</t>
+  </si>
+  <si>
+    <t>Erika Perez Dominguez</t>
+  </si>
+  <si>
+    <t>Fabiola Garcia Lomeli</t>
+  </si>
+  <si>
+    <t>Fernando Ariel Leibowich Beker</t>
+  </si>
+  <si>
+    <t>Fernando Elizalde Espinosa</t>
+  </si>
+  <si>
+    <t>Florencia Mata</t>
+  </si>
+  <si>
+    <t>Francisco Diego Santos</t>
+  </si>
+  <si>
+    <t>Geovanni Mendez Hernandez</t>
+  </si>
+  <si>
+    <t>Gerardo Cruz Santiago</t>
+  </si>
+  <si>
+    <t>Giovanni Garcia Ferrari</t>
+  </si>
+  <si>
+    <t>Gloria Ramos Jimenez</t>
+  </si>
+  <si>
+    <t>Gustavo Angel Leonardo Morales</t>
+  </si>
+  <si>
+    <t>Hatziry Angelica Gonzalez Rosas</t>
+  </si>
+  <si>
+    <t>Hector Adrian Rosado Huicab</t>
+  </si>
+  <si>
+    <t>Hector Misael Lopez Franco</t>
+  </si>
+  <si>
+    <t>Hector Ricardo Pacheco Perez</t>
+  </si>
+  <si>
     <t>Humberto Carreto Gonzalez</t>
+  </si>
+  <si>
+    <t>Irvin Eduardo Mariaca Santos</t>
+  </si>
+  <si>
+    <t>Irving Daniel Vega Bustamante</t>
+  </si>
+  <si>
+    <t>Isayd Ubaldo Mejia Alba</t>
+  </si>
+  <si>
+    <t>Ivan Santana Carmen</t>
+  </si>
+  <si>
+    <t>Iván Ulises Barragan Valdovinos</t>
+  </si>
+  <si>
+    <t>Javier Guillen Turcio</t>
+  </si>
+  <si>
+    <t>Jonathan Obed Reyes Aviles</t>
+  </si>
+  <si>
+    <t>Jonny Montes Waldo</t>
+  </si>
+  <si>
+    <t>Jorge Quijano Rivera</t>
+  </si>
+  <si>
+    <t>Juan Manuel Flores Romero</t>
+  </si>
+  <si>
+    <t>Julio Cesar Rodriguez Rodriguez</t>
+  </si>
+  <si>
+    <t>Karina Tovar Ramirez</t>
   </si>
   <si>
     <t>Leticia Chavez Resendiz</t>
@@ -56,235 +230,79 @@
     <t>Liliana Contreras Valdez</t>
   </si>
   <si>
-    <t>Cinthya Cruz Herrera</t>
-  </si>
-  <si>
-    <t>Gerardo Cruz Santiago</t>
-  </si>
-  <si>
-    <t>Francisco Diego Santos</t>
-  </si>
-  <si>
-    <t>Fernando Elizalde Espinosa</t>
-  </si>
-  <si>
-    <t>Brandon Ferrer Tapia</t>
-  </si>
-  <si>
-    <t>Eduardo Flores Morales</t>
-  </si>
-  <si>
-    <t>Giovanni Garcia Ferrari</t>
-  </si>
-  <si>
-    <t>David Israel Armendariz Navarrete</t>
-  </si>
-  <si>
     <t>Luis Angel Bibiano Suastegui</t>
   </si>
   <si>
-    <t>Tanya Zarahi Cabrera Palacios</t>
+    <t>Luis Dario Mota Garcia</t>
   </si>
   <si>
-    <t>Aylin Yatzel Castro Brito</t>
+    <t>Luis Enrique Garcia Rivera</t>
   </si>
   <si>
-    <t>Ana Karen Cedillo Díaz</t>
+    <t>Luis Felipe Ramos Garcia</t>
+  </si>
+  <si>
+    <t>Magaly Diana Leana Fierros</t>
+  </si>
+  <si>
+    <t>Mariana Miguel Moreno</t>
   </si>
   <si>
     <t>Mario Alejandro Dominguez Linares</t>
   </si>
   <si>
-    <t>Erick Jesus Dublan Limon</t>
+    <t>Mario Barrios Vasquez</t>
   </si>
   <si>
     <t>Miguel Angel Fernandez Moreno</t>
   </si>
   <si>
-    <t>Juan Manuel Flores Romero</t>
+    <t>Miguel Angel Lopez Martinez</t>
   </si>
   <si>
-    <t>Luis Ernesto Gallegos Rivas</t>
+    <t>Miguel Angel Velazquez Reyes</t>
   </si>
   <si>
-    <t>Iván Ulises Barragan Valdovinos</t>
+    <t>Milagros del Valle Hidalgo Hernandez</t>
   </si>
   <si>
-    <t>Carlos Abraham Diaz Martinez</t>
+    <t>Omar Israel Martinez Silva</t>
   </si>
   <si>
-    <t>Fabiola Garcia Lomeli</t>
+    <t>Rodrigo Ivan Moreno Juarez</t>
   </si>
   <si>
-    <t>Luis Enrique Garcia Rivera</t>
-  </si>
-  <si>
-    <t>Carlos Garet García Zaragoza</t>
-  </si>
-  <si>
-    <t>Andres Matias Gonzalez Marin</t>
-  </si>
-  <si>
-    <t>Bryan Alberto Gonzalez Rodriguez</t>
-  </si>
-  <si>
-    <t>Hatziry Angelica Gonzalez Rosas</t>
-  </si>
-  <si>
-    <t>Javier Guillen Turcio</t>
-  </si>
-  <si>
-    <t>Diana Laura Gutierrez Alvarez</t>
+    <t>Rodrigo Trinidad Hernandez</t>
   </si>
   <si>
     <t>Rosa Elena Gutierrez Martinez</t>
   </si>
   <si>
-    <t>Milagros del Valle Hidalgo Hernandez</t>
+    <t>Samuel Sobrevilla Bustamante</t>
+  </si>
+  <si>
+    <t>Tere Vianney Sanchez Hernandez</t>
   </si>
   <si>
     <t>Victor Jose de Jesus Juarez Gutierrez</t>
   </si>
   <si>
-    <t>Magaly Diana Leana Fierros</t>
+    <t>Eleael Oseguera Martinez</t>
   </si>
   <si>
-    <t>Fernando Ariel Leibowich Beker</t>
-  </si>
-  <si>
-    <t>Gustavo Angel Leonardo Morales</t>
-  </si>
-  <si>
-    <t>Hector Misael Lopez Franco</t>
-  </si>
-  <si>
-    <t>Miguel Angel Lopez Martinez</t>
-  </si>
-  <si>
-    <t>Eliana Mariel Luna Ponce</t>
-  </si>
-  <si>
-    <t>Arturo Magallanes Prado</t>
-  </si>
-  <si>
-    <t>Irvin Eduardo Mariaca Santos</t>
-  </si>
-  <si>
-    <t>Cristian Martinez Acosta</t>
-  </si>
-  <si>
-    <t>Edgar Antonio Martinez Jimenez</t>
-  </si>
-  <si>
-    <t>Omar Israel Martinez Silva</t>
-  </si>
-  <si>
-    <t>Isayd Ubaldo Mejia Alba</t>
-  </si>
-  <si>
-    <t>Geovanni Mendez Hernandez</t>
-  </si>
-  <si>
-    <t>Mariana Miguel Moreno</t>
-  </si>
-  <si>
-    <t>Jonny Montes Waldo</t>
-  </si>
-  <si>
-    <t>Angelica Jhovana Moreno Jimenez</t>
-  </si>
-  <si>
-    <t>Rodrigo Ivan Moreno Juarez</t>
-  </si>
-  <si>
-    <t>Luis Dario Mota Garcia</t>
-  </si>
-  <si>
-    <t>Hector Ricardo Pacheco Perez</t>
-  </si>
-  <si>
-    <t>Carlos Adrian Carrillo Carrillo</t>
-  </si>
-  <si>
-    <t>Alberto Pérez Díaz</t>
-  </si>
-  <si>
-    <t>Erika Perez Dominguez</t>
-  </si>
-  <si>
-    <t>Jorge Quijano Rivera</t>
-  </si>
-  <si>
-    <t>Luis Felipe Ramos Garcia</t>
-  </si>
-  <si>
-    <t>Gloria Ramos Jimenez</t>
-  </si>
-  <si>
-    <t>Jonathan Obed Reyes Aviles</t>
-  </si>
-  <si>
-    <t>Aida Montserrat Rodriguez Alvarado</t>
-  </si>
-  <si>
-    <t>Julio Cesar Rodriguez Rodriguez</t>
-  </si>
-  <si>
-    <t>Hector Adrian Rosado Huicab</t>
-  </si>
-  <si>
-    <t>Baltasa Roze Alejo</t>
-  </si>
-  <si>
-    <t>Tere Vianney Sanchez Hernandez</t>
-  </si>
-  <si>
-    <t>David Sanchez Martinez</t>
-  </si>
-  <si>
-    <t>Erick Jovani Sanchez Rodriguez</t>
-  </si>
-  <si>
-    <t>Ivan Santana Carmen</t>
-  </si>
-  <si>
-    <t>Samuel Sobrevilla Bustamante</t>
-  </si>
-  <si>
-    <t>Karina Tovar Ramirez</t>
-  </si>
-  <si>
-    <t>Rodrigo Trinidad Hernandez</t>
-  </si>
-  <si>
-    <t>Irving Daniel Vega Bustamante</t>
-  </si>
-  <si>
-    <t>Alan Eduardo Vega Mora</t>
-  </si>
-  <si>
-    <t>Miguel Angel Velazquez Reyes</t>
-  </si>
-  <si>
-    <t>Elias Ramses Villanueva Agüero</t>
-  </si>
-  <si>
-    <t>Nombres</t>
-  </si>
-  <si>
-    <t>Florencia Mata</t>
-  </si>
-  <si>
-    <t>Alberto Vazquez Chiquillo</t>
+    <t>Fernando Rodriguez Pineda</t>
   </si>
   <si>
     <t>Juan Carlos Mendoza Suastegui</t>
   </si>
   <si>
-    <t>Eleael Oseguera Martinez</t>
+    <t>Juan Daniel Esparza Aguilar</t>
   </si>
   <si>
-    <t>Cynthia Itzel Betancourt Hernanadez</t>
+    <t>Keyla Genoveva Garcia Legaspi</t>
+  </si>
+  <si>
+    <t>Luis Ernesto Gallegos Rivas</t>
   </si>
   <si>
     <t>Luis Giovanny Alcantara Lubiano</t>
@@ -293,292 +311,7 @@
     <t>Richard Christopher Rodriguez Alvarado</t>
   </si>
   <si>
-    <t>Juan Daniel Esparza Aguilar</t>
-  </si>
-  <si>
-    <t>Fernando Rodriguez Pineda</t>
-  </si>
-  <si>
-    <t>Diego Alejandro Rodriguez Rangel</t>
-  </si>
-  <si>
-    <t>Eduardo Ramirez Velazquez</t>
-  </si>
-  <si>
-    <t>Keyla Genoveva Garcia Legaspi</t>
-  </si>
-  <si>
-    <t>alberto.vazquez@@talentoit.net</t>
-  </si>
-  <si>
-    <t>cynthia.betancourt@@tcyentoit.net</t>
-  </si>
-  <si>
-    <t>diego.rodriguez@@tdientoit.net</t>
-  </si>
-  <si>
-    <t>eduardo.ramirez@@tedentoit.net</t>
-  </si>
-  <si>
-    <t>eleael.oseguera@@telentoit.net</t>
-  </si>
-  <si>
-    <t>fernando.rodriguez@@tfeentoit.net</t>
-  </si>
-  <si>
-    <t>juan.mendoza@@tjuentoit.net</t>
-  </si>
-  <si>
-    <t>juan.esparza@@tjuentoit.net</t>
-  </si>
-  <si>
-    <t>keyla.garcia@@tkeentoit.net</t>
-  </si>
-  <si>
-    <t>luis.gallegos@talentoit.net</t>
-  </si>
-  <si>
-    <t>luis.alcantara@@tluentoit.net</t>
-  </si>
-  <si>
-    <t>richard.rodriguez@@trientoit.net</t>
-  </si>
-  <si>
-    <t>tanya.cabrera@talentoit.net</t>
-  </si>
-  <si>
-    <t>abraham.aranda@beeckerco.com</t>
-  </si>
-  <si>
-    <t>aida.rodriguez@beeckerco.com</t>
-  </si>
-  <si>
-    <t>alan.vega@kirjner.edu.mx</t>
-  </si>
-  <si>
-    <t>alberto.perez@beeckerco.com</t>
-  </si>
-  <si>
-    <t>alfredo.bobadilla@beeckerco.com</t>
-  </si>
-  <si>
-    <t>ana.cedillo@beeckerco.com</t>
-  </si>
-  <si>
-    <t>andres.gonzalez@beeckerco.com</t>
-  </si>
-  <si>
-    <t>angelica.moreno@beeckerco.com</t>
-  </si>
-  <si>
-    <t>ariana.barrios@beeckerco.com</t>
-  </si>
-  <si>
-    <t>arturo.magallanes@beeckerco.com</t>
-  </si>
-  <si>
-    <t>aylin.castro@beeckerco.com</t>
-  </si>
-  <si>
-    <t>alejo.roze@beeckerco.com</t>
-  </si>
-  <si>
-    <t>brandon.ferrer@beeckerco.com</t>
-  </si>
-  <si>
-    <t>bryan.gonzalez@beeckerco.com</t>
-  </si>
-  <si>
-    <t>carlos.diaz@beeckerco.com</t>
-  </si>
-  <si>
-    <t>adrian.carrillo@beeckerco.com</t>
-  </si>
-  <si>
-    <t>carlos.garcia@kirjner.edu.mx</t>
-  </si>
-  <si>
-    <t>cinthya.cruz@beeckerco.com</t>
-  </si>
-  <si>
-    <t>cristian.martinez@beeckerco.com</t>
-  </si>
-  <si>
-    <t>darmendariz@beeckerco.com</t>
-  </si>
-  <si>
-    <t>david.sanchez@beeckerco.com</t>
-  </si>
-  <si>
-    <t>diana.gutierrez@beeckerco.com</t>
-  </si>
-  <si>
-    <t>edgar.martinez@beeckerco.com</t>
-  </si>
-  <si>
-    <t>eduardo.flores@kirjner.edu.mx</t>
-  </si>
-  <si>
-    <t>mariel.luna@beeckerco.com</t>
-  </si>
-  <si>
-    <t>elias.villanueva@beeckerco.com</t>
-  </si>
-  <si>
-    <t>erick.dublan@beeckerco.com</t>
-  </si>
-  <si>
-    <t>erick.sanchez@beeckerco.com</t>
-  </si>
-  <si>
-    <t>erika.perez@beeckerco.com</t>
-  </si>
-  <si>
-    <t>fabiola.garcia@beeckerco.com</t>
-  </si>
-  <si>
-    <t>fernando.leibowich@beeckerco.com</t>
-  </si>
-  <si>
-    <t>fernando.elizalde@beeckerco.com</t>
-  </si>
-  <si>
-    <t>florencia.mata@beeckerco.com</t>
-  </si>
-  <si>
-    <t>santos.diego@beeckerco.com</t>
-  </si>
-  <si>
-    <t>geovanni.mendez@beeckerco.com</t>
-  </si>
-  <si>
-    <t>gerardo.cruz@beeckerco.com</t>
-  </si>
-  <si>
-    <t>giovanni.garcia@beeckerco.com</t>
-  </si>
-  <si>
-    <t>gloria.ramos@beeckerco.com</t>
-  </si>
-  <si>
-    <t>gustavo.leonardo@kirjner.edu.mx</t>
-  </si>
-  <si>
-    <t>hatziry.gonzalez@beeckerco.com</t>
-  </si>
-  <si>
-    <t>hector.rosado@beeckerco.com</t>
-  </si>
-  <si>
-    <t>misael.lopez@beeckerco.com</t>
-  </si>
-  <si>
-    <t>hector.pacheco@beeckerco.com</t>
-  </si>
-  <si>
-    <t>humberto.carreto@kirjner.edu.mx</t>
-  </si>
-  <si>
-    <t>irvin.mariaca@beeckerco.com</t>
-  </si>
-  <si>
-    <t>irving.vega@beeckerco.com</t>
-  </si>
-  <si>
-    <t>isayd.mejia@beeckerco.com</t>
-  </si>
-  <si>
-    <t>ivan.santana@kirjner.edu.mx</t>
-  </si>
-  <si>
-    <t>ivan.barragan@beeckerco.com</t>
-  </si>
-  <si>
-    <t>javier.guillen@beeckerco.com</t>
-  </si>
-  <si>
-    <t>jonathan.reyes@beeckerco.com</t>
-  </si>
-  <si>
-    <t>jonny.montes@beeckerco.com</t>
-  </si>
-  <si>
-    <t>jorge.quijano@beeckerco.com</t>
-  </si>
-  <si>
-    <t>juan.flores@beeckerco.com</t>
-  </si>
-  <si>
-    <t>julio.rodriguez@beeckerco.com</t>
-  </si>
-  <si>
-    <t>karina.tovar@beeckerco.com</t>
-  </si>
-  <si>
-    <t>leticia.chavez@beeckerco.com</t>
-  </si>
-  <si>
-    <t>liliana.contreras@beeckerco.com</t>
-  </si>
-  <si>
-    <t>luis.bibiano@kirjner.edu.mx</t>
-  </si>
-  <si>
-    <t>luis.mota@kirjner.edu.mx</t>
-  </si>
-  <si>
-    <t>diego.nunez@beeckerco.com</t>
-  </si>
-  <si>
-    <t>luis.garcia@beeckerco.com</t>
-  </si>
-  <si>
-    <t>luis.ramos@beeckerco.com</t>
-  </si>
-  <si>
-    <t>magaly.leana@beeckerco.com</t>
-  </si>
-  <si>
-    <t>mariana.miguel@beeckerco.com</t>
-  </si>
-  <si>
-    <t>mario.dominguez@beeckerco.com</t>
-  </si>
-  <si>
-    <t>mario.barrios@beeckerco.com</t>
-  </si>
-  <si>
-    <t>miguel.fernandez@beeckerco.com</t>
-  </si>
-  <si>
-    <t>miguel.lopez@beeckerco.com</t>
-  </si>
-  <si>
-    <t>miguel.velazquez@beeckerco.com</t>
-  </si>
-  <si>
-    <t>milagros.hidalgo@beeckerco.com</t>
-  </si>
-  <si>
-    <t>omar.martinez@beeckerco.com</t>
-  </si>
-  <si>
-    <t>rodrigo.moreno@beeckerco.com</t>
-  </si>
-  <si>
-    <t>rodrigo.trinidad@beeckerco.com</t>
-  </si>
-  <si>
-    <t>rosa.gutierrez@kirjner.edu.mx</t>
-  </si>
-  <si>
-    <t>samuel.sobrevilla@kirjner.edu.mx</t>
-  </si>
-  <si>
-    <t>vianney.sanchez@beeckerco.com</t>
-  </si>
-  <si>
-    <t>victor.juarez@beeckerco.com</t>
+    <t>Tanya Zarahi Cabrera Palacios</t>
   </si>
 </sst>
 </file>
@@ -646,7 +379,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -678,6 +411,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -961,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CB234"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="30" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B79"/>
+    <sheetView topLeftCell="A43" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="30" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -986,7 +720,7 @@
   <sheetData>
     <row r="1" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>0</v>
@@ -1066,8 +800,8 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>105</v>
+      <c r="B2" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="2"/>
@@ -1146,10 +880,10 @@
     </row>
     <row r="3" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>106</v>
+      <c r="B3" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="2"/>
@@ -1228,10 +962,10 @@
     </row>
     <row r="4" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>107</v>
+      <c r="B4" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="2"/>
@@ -1310,10 +1044,10 @@
     </row>
     <row r="5" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>108</v>
+      <c r="B5" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="2"/>
@@ -1392,10 +1126,10 @@
     </row>
     <row r="6" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>109</v>
+      <c r="B6" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="2"/>
@@ -1474,10 +1208,10 @@
     </row>
     <row r="7" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>110</v>
+      <c r="B7" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="2"/>
@@ -1556,10 +1290,10 @@
     </row>
     <row r="8" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>111</v>
+      <c r="B8" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="2"/>
@@ -1638,10 +1372,10 @@
     </row>
     <row r="9" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>112</v>
+      <c r="B9" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="2"/>
@@ -1722,8 +1456,8 @@
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>113</v>
+      <c r="B10" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="2"/>
@@ -1802,10 +1536,10 @@
     </row>
     <row r="11" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>114</v>
+      <c r="B11" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="2"/>
@@ -1886,8 +1620,8 @@
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>115</v>
+      <c r="B12" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="2"/>
@@ -1966,10 +1700,10 @@
     </row>
     <row r="13" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>116</v>
+      <c r="B13" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="2"/>
@@ -2048,10 +1782,10 @@
     </row>
     <row r="14" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>117</v>
+      <c r="B14" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="2"/>
@@ -2130,10 +1864,10 @@
     </row>
     <row r="15" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>118</v>
+      <c r="B15" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="2"/>
@@ -2212,10 +1946,10 @@
     </row>
     <row r="16" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>119</v>
+      <c r="B16" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="2"/>
@@ -2294,10 +2028,10 @@
     </row>
     <row r="17" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>120</v>
+      <c r="B17" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="2"/>
@@ -2376,10 +2110,10 @@
     </row>
     <row r="18" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>121</v>
+      <c r="B18" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="2"/>
@@ -2458,10 +2192,10 @@
     </row>
     <row r="19" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>122</v>
+      <c r="B19" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="2"/>
@@ -2540,10 +2274,10 @@
     </row>
     <row r="20" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>123</v>
+      <c r="B20" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="2"/>
@@ -2622,10 +2356,10 @@
     </row>
     <row r="21" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>124</v>
+      <c r="B21" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="2"/>
@@ -2704,10 +2438,10 @@
     </row>
     <row r="22" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>125</v>
+      <c r="B22" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="2"/>
@@ -2786,10 +2520,10 @@
     </row>
     <row r="23" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
-      <c r="B23" s="13" t="s">
-        <v>126</v>
+      <c r="B23" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="2"/>
@@ -2868,10 +2602,10 @@
     </row>
     <row r="24" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
-      <c r="B24" s="13" t="s">
-        <v>127</v>
+      <c r="B24" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="2"/>
@@ -2950,10 +2684,10 @@
     </row>
     <row r="25" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>128</v>
+      <c r="B25" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="2"/>
@@ -3032,10 +2766,10 @@
     </row>
     <row r="26" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
-      <c r="B26" s="13" t="s">
-        <v>129</v>
+      <c r="B26" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="2"/>
@@ -3114,10 +2848,10 @@
     </row>
     <row r="27" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
-      <c r="B27" s="13" t="s">
-        <v>130</v>
+      <c r="B27" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="2"/>
@@ -3196,10 +2930,10 @@
     </row>
     <row r="28" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
-      <c r="B28" s="13" t="s">
-        <v>131</v>
+      <c r="B28" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="2"/>
@@ -3278,10 +3012,10 @@
     </row>
     <row r="29" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
-      <c r="B29" s="13" t="s">
-        <v>132</v>
+      <c r="B29" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="2"/>
@@ -3360,10 +3094,10 @@
     </row>
     <row r="30" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
-      <c r="B30" s="13" t="s">
-        <v>133</v>
+      <c r="B30" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="2"/>
@@ -3442,10 +3176,10 @@
     </row>
     <row r="31" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
-      <c r="B31" s="13" t="s">
-        <v>134</v>
+      <c r="B31" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="2"/>
@@ -3524,10 +3258,10 @@
     </row>
     <row r="32" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
-      <c r="B32" s="13" t="s">
-        <v>135</v>
+      <c r="B32" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="2"/>
@@ -3606,10 +3340,10 @@
     </row>
     <row r="33" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
-      <c r="B33" s="13" t="s">
-        <v>136</v>
+      <c r="B33" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="2"/>
@@ -3688,10 +3422,10 @@
     </row>
     <row r="34" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
-      <c r="B34" s="13" t="s">
-        <v>137</v>
+      <c r="B34" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="2"/>
@@ -3770,10 +3504,10 @@
     </row>
     <row r="35" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
-      <c r="B35" s="13" t="s">
-        <v>138</v>
+      <c r="B35" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="2"/>
@@ -3852,10 +3586,10 @@
     </row>
     <row r="36" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
-      <c r="B36" s="13" t="s">
-        <v>139</v>
+      <c r="B36" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="2"/>
@@ -3934,10 +3668,10 @@
     </row>
     <row r="37" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
-      <c r="B37" s="13" t="s">
-        <v>140</v>
+      <c r="B37" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="2"/>
@@ -4016,10 +3750,10 @@
     </row>
     <row r="38" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
-      <c r="B38" s="13" t="s">
-        <v>141</v>
+      <c r="B38" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="2"/>
@@ -4101,10 +3835,10 @@
     </row>
     <row r="39" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
-      <c r="B39" s="13" t="s">
-        <v>142</v>
+      <c r="B39" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="2"/>
@@ -4186,10 +3920,10 @@
     </row>
     <row r="40" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
-      <c r="B40" s="13" t="s">
-        <v>143</v>
+      <c r="B40" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="2"/>
@@ -4271,10 +4005,10 @@
     </row>
     <row r="41" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
-      <c r="B41" s="13" t="s">
-        <v>144</v>
+      <c r="B41" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="2"/>
@@ -4356,10 +4090,10 @@
     </row>
     <row r="42" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
-      <c r="B42" s="13" t="s">
-        <v>145</v>
+      <c r="B42" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D42" s="3"/>
       <c r="O42" s="1"/>
@@ -4431,10 +4165,10 @@
     </row>
     <row r="43" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
-      <c r="B43" s="13" t="s">
-        <v>146</v>
+      <c r="B43" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="2"/>
@@ -4516,10 +4250,10 @@
     </row>
     <row r="44" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
-      <c r="B44" s="13" t="s">
-        <v>147</v>
+      <c r="B44" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="2"/>
@@ -4601,10 +4335,10 @@
     </row>
     <row r="45" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
-      <c r="B45" s="13" t="s">
-        <v>148</v>
+      <c r="B45" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="2"/>
@@ -4682,10 +4416,10 @@
     </row>
     <row r="46" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
-      <c r="B46" s="13" t="s">
-        <v>149</v>
+      <c r="B46" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="2"/>
@@ -4767,10 +4501,10 @@
     </row>
     <row r="47" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
-      <c r="B47" s="13" t="s">
-        <v>150</v>
+      <c r="B47" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="2"/>
@@ -4852,10 +4586,10 @@
     </row>
     <row r="48" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
-      <c r="B48" s="13" t="s">
-        <v>151</v>
+      <c r="B48" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="2"/>
@@ -4937,10 +4671,10 @@
     </row>
     <row r="49" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
-      <c r="B49" s="13" t="s">
-        <v>152</v>
+      <c r="B49" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="2"/>
@@ -5022,10 +4756,10 @@
     </row>
     <row r="50" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
-      <c r="B50" s="13" t="s">
-        <v>153</v>
+      <c r="B50" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="2"/>
@@ -5107,10 +4841,10 @@
     </row>
     <row r="51" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
-      <c r="B51" s="13" t="s">
-        <v>154</v>
+      <c r="B51" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="2"/>
@@ -5192,10 +4926,10 @@
     </row>
     <row r="52" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
-      <c r="B52" s="13" t="s">
-        <v>155</v>
+      <c r="B52" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="2"/>
@@ -5277,10 +5011,10 @@
     </row>
     <row r="53" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
-      <c r="B53" s="13" t="s">
-        <v>156</v>
+      <c r="B53" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="2"/>
@@ -5364,8 +5098,8 @@
       <c r="A54" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B54" s="13" t="s">
-        <v>157</v>
+      <c r="B54" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="2"/>
@@ -5447,10 +5181,10 @@
     </row>
     <row r="55" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
-      <c r="B55" s="13" t="s">
-        <v>158</v>
+      <c r="B55" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="2"/>
@@ -5532,10 +5266,10 @@
     </row>
     <row r="56" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
-      <c r="B56" s="13" t="s">
-        <v>159</v>
+      <c r="B56" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="2"/>
@@ -5617,10 +5351,10 @@
     </row>
     <row r="57" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
-      <c r="B57" s="13" t="s">
-        <v>160</v>
+      <c r="B57" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="2"/>
@@ -5702,10 +5436,10 @@
     </row>
     <row r="58" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
-      <c r="B58" s="13" t="s">
-        <v>161</v>
+      <c r="B58" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="2"/>
@@ -5787,10 +5521,10 @@
     </row>
     <row r="59" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
-      <c r="B59" s="13" t="s">
-        <v>162</v>
+      <c r="B59" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="2"/>
@@ -5872,10 +5606,10 @@
     </row>
     <row r="60" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60" s="15" t="s">
         <v>16</v>
-      </c>
-      <c r="B60" s="13" t="s">
-        <v>163</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="2"/>
@@ -5957,10 +5691,10 @@
     </row>
     <row r="61" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
-      <c r="B61" s="13" t="s">
-        <v>164</v>
+      <c r="B61" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="2"/>
@@ -6042,10 +5776,10 @@
     </row>
     <row r="62" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
-      <c r="B62" s="13" t="s">
-        <v>165</v>
+      <c r="B62" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="2"/>
@@ -6127,10 +5861,10 @@
     </row>
     <row r="63" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
-      <c r="B63" s="13" t="s">
-        <v>166</v>
+      <c r="B63" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="2"/>
@@ -6212,10 +5946,10 @@
     </row>
     <row r="64" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
-      <c r="B64" s="13" t="s">
-        <v>167</v>
+      <c r="B64" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="2"/>
@@ -6297,10 +6031,10 @@
     </row>
     <row r="65" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
-      <c r="B65" s="13" t="s">
-        <v>168</v>
+      <c r="B65" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="2"/>
@@ -6382,10 +6116,10 @@
     </row>
     <row r="66" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
-      <c r="B66" s="13" t="s">
-        <v>169</v>
+      <c r="B66" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="2"/>
@@ -6467,10 +6201,10 @@
     </row>
     <row r="67" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
-      <c r="B67" s="13" t="s">
-        <v>170</v>
+      <c r="B67" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="2"/>
@@ -6552,10 +6286,10 @@
     </row>
     <row r="68" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>3</v>
+        <v>73</v>
       </c>
-      <c r="B68" s="13" t="s">
-        <v>171</v>
+      <c r="B68" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="2"/>
@@ -6637,10 +6371,10 @@
     </row>
     <row r="69" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
-      <c r="B69" s="13" t="s">
-        <v>172</v>
+      <c r="B69" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="2"/>
@@ -6722,10 +6456,10 @@
     </row>
     <row r="70" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
-      <c r="B70" s="13" t="s">
-        <v>173</v>
+      <c r="B70" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="2"/>
@@ -6807,10 +6541,10 @@
     </row>
     <row r="71" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
-      <c r="B71" s="13" t="s">
-        <v>174</v>
+      <c r="B71" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="2"/>
@@ -6892,10 +6626,10 @@
     </row>
     <row r="72" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
-      <c r="B72" s="13" t="s">
-        <v>175</v>
+      <c r="B72" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="2"/>
@@ -6977,10 +6711,10 @@
     </row>
     <row r="73" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
-      <c r="B73" s="13" t="s">
-        <v>176</v>
+      <c r="B73" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="2"/>
@@ -7062,10 +6796,10 @@
     </row>
     <row r="74" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
-      <c r="B74" s="13" t="s">
-        <v>177</v>
+      <c r="B74" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="2"/>
@@ -7147,10 +6881,10 @@
     </row>
     <row r="75" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
-      <c r="B75" s="13" t="s">
-        <v>178</v>
+      <c r="B75" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="2"/>
@@ -7232,10 +6966,10 @@
     </row>
     <row r="76" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
-      <c r="B76" s="13" t="s">
-        <v>179</v>
+      <c r="B76" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="2"/>
@@ -7317,10 +7051,10 @@
     </row>
     <row r="77" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
-      <c r="B77" s="13" t="s">
-        <v>180</v>
+      <c r="B77" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="2"/>
@@ -7402,10 +7136,10 @@
     </row>
     <row r="78" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
-      <c r="B78" s="13" t="s">
-        <v>181</v>
+      <c r="B78" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="2"/>
@@ -7487,10 +7221,10 @@
     </row>
     <row r="79" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
-      <c r="B79" s="13" t="s">
-        <v>182</v>
+      <c r="B79" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="2"/>
@@ -20247,8 +19981,29 @@
   <sortState ref="A2:I80">
     <sortCondition ref="A1"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B9" r:id="rId2"/>
+    <hyperlink ref="B12" r:id="rId3"/>
+    <hyperlink ref="B19" r:id="rId4"/>
+    <hyperlink ref="B20" r:id="rId5"/>
+    <hyperlink ref="B28" r:id="rId6"/>
+    <hyperlink ref="B36" r:id="rId7"/>
+    <hyperlink ref="B44" r:id="rId8"/>
+    <hyperlink ref="B52" r:id="rId9"/>
+    <hyperlink ref="B60" r:id="rId10"/>
+    <hyperlink ref="B68" r:id="rId11"/>
+    <hyperlink ref="B76" r:id="rId12"/>
+    <hyperlink ref="B27" r:id="rId13"/>
+    <hyperlink ref="B35" r:id="rId14"/>
+    <hyperlink ref="B43" r:id="rId15"/>
+    <hyperlink ref="B51" r:id="rId16"/>
+    <hyperlink ref="B59" r:id="rId17"/>
+    <hyperlink ref="B67" r:id="rId18"/>
+    <hyperlink ref="B75" r:id="rId19"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
 
@@ -20256,8 +20011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20268,7 +20023,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>0</v>
@@ -20276,106 +20031,106 @@
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>84</v>
+      <c r="B13" s="10" t="s">
+        <v>16</v>
       </c>
-      <c r="B3" s="10" t="s">
+    </row>
+    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="B14" s="10" t="s">
-        <v>104</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -20384,13 +20139,8 @@
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="alberto.vazquez@"/>
-    <hyperlink ref="B11" r:id="rId2"/>
-    <hyperlink ref="B14" r:id="rId3"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Data/Input/listaEmpleados.xlsx
+++ b/Data/Input/listaEmpleados.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="BeeckerCo" sheetId="2" r:id="rId1"/>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>Alberto Pérez Díaz</t>
-  </si>
-  <si>
-    <t>Aida Montserrat Rodriguez Alvarado</t>
   </si>
   <si>
     <t>Alan Eduardo Vega Mora</t>
@@ -312,6 +309,9 @@
   </si>
   <si>
     <t>Tanya Zarahi Cabrera Palacios</t>
+  </si>
+  <si>
+    <t>Aida Montserrat Rodriguez Alvarad</t>
   </si>
 </sst>
 </file>
@@ -695,13 +695,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CB234"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="30" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B79"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="30" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.42578125" customWidth="1"/>
     <col min="4" max="4" width="38.28515625" bestFit="1" customWidth="1"/>
@@ -720,7 +720,7 @@
   <sheetData>
     <row r="1" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="2"/>
@@ -880,10 +880,10 @@
     </row>
     <row r="3" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>93</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="2"/>
@@ -962,10 +962,10 @@
     </row>
     <row r="4" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="2"/>
@@ -1047,7 +1047,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="2"/>
@@ -1129,7 +1129,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="2"/>
@@ -1211,7 +1211,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="2"/>
@@ -1293,7 +1293,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="2"/>
@@ -1375,7 +1375,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="2"/>
@@ -1457,7 +1457,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="2"/>
@@ -1539,7 +1539,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="2"/>
@@ -1618,10 +1618,10 @@
     </row>
     <row r="12" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="2"/>
@@ -1700,10 +1700,10 @@
     </row>
     <row r="13" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="2"/>
@@ -1782,10 +1782,10 @@
     </row>
     <row r="14" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="2"/>
@@ -1864,10 +1864,10 @@
     </row>
     <row r="15" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="2"/>
@@ -1946,10 +1946,10 @@
     </row>
     <row r="16" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="2"/>
@@ -2028,10 +2028,10 @@
     </row>
     <row r="17" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="2"/>
@@ -2110,10 +2110,10 @@
     </row>
     <row r="18" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="2"/>
@@ -2192,10 +2192,10 @@
     </row>
     <row r="19" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="2"/>
@@ -2274,10 +2274,10 @@
     </row>
     <row r="20" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="2"/>
@@ -2356,10 +2356,10 @@
     </row>
     <row r="21" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="2"/>
@@ -2438,10 +2438,10 @@
     </row>
     <row r="22" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="2"/>
@@ -2520,10 +2520,10 @@
     </row>
     <row r="23" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="2"/>
@@ -2602,10 +2602,10 @@
     </row>
     <row r="24" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="2"/>
@@ -2684,10 +2684,10 @@
     </row>
     <row r="25" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="2"/>
@@ -2766,10 +2766,10 @@
     </row>
     <row r="26" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="2"/>
@@ -2848,10 +2848,10 @@
     </row>
     <row r="27" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="2"/>
@@ -2930,10 +2930,10 @@
     </row>
     <row r="28" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="2"/>
@@ -3012,10 +3012,10 @@
     </row>
     <row r="29" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="2"/>
@@ -3094,10 +3094,10 @@
     </row>
     <row r="30" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="2"/>
@@ -3176,10 +3176,10 @@
     </row>
     <row r="31" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="2"/>
@@ -3258,10 +3258,10 @@
     </row>
     <row r="32" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="2"/>
@@ -3340,10 +3340,10 @@
     </row>
     <row r="33" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="2"/>
@@ -3422,10 +3422,10 @@
     </row>
     <row r="34" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="2"/>
@@ -3504,10 +3504,10 @@
     </row>
     <row r="35" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="2"/>
@@ -3586,10 +3586,10 @@
     </row>
     <row r="36" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="2"/>
@@ -3668,10 +3668,10 @@
     </row>
     <row r="37" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="2"/>
@@ -3750,10 +3750,10 @@
     </row>
     <row r="38" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="2"/>
@@ -3835,10 +3835,10 @@
     </row>
     <row r="39" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="2"/>
@@ -3920,10 +3920,10 @@
     </row>
     <row r="40" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="2"/>
@@ -4005,10 +4005,10 @@
     </row>
     <row r="41" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="2"/>
@@ -4090,10 +4090,10 @@
     </row>
     <row r="42" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D42" s="3"/>
       <c r="O42" s="1"/>
@@ -4165,10 +4165,10 @@
     </row>
     <row r="43" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="2"/>
@@ -4250,10 +4250,10 @@
     </row>
     <row r="44" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="2"/>
@@ -4335,10 +4335,10 @@
     </row>
     <row r="45" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="2"/>
@@ -4416,10 +4416,10 @@
     </row>
     <row r="46" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="2"/>
@@ -4501,10 +4501,10 @@
     </row>
     <row r="47" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="2"/>
@@ -4586,10 +4586,10 @@
     </row>
     <row r="48" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="2"/>
@@ -4671,10 +4671,10 @@
     </row>
     <row r="49" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="2"/>
@@ -4756,10 +4756,10 @@
     </row>
     <row r="50" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="2"/>
@@ -4841,10 +4841,10 @@
     </row>
     <row r="51" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="2"/>
@@ -4926,10 +4926,10 @@
     </row>
     <row r="52" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="2"/>
@@ -5011,10 +5011,10 @@
     </row>
     <row r="53" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="2"/>
@@ -5096,10 +5096,10 @@
     </row>
     <row r="54" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="2"/>
@@ -5181,10 +5181,10 @@
     </row>
     <row r="55" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="2"/>
@@ -5266,10 +5266,10 @@
     </row>
     <row r="56" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="2"/>
@@ -5351,10 +5351,10 @@
     </row>
     <row r="57" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="2"/>
@@ -5436,10 +5436,10 @@
     </row>
     <row r="58" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="2"/>
@@ -5521,10 +5521,10 @@
     </row>
     <row r="59" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="2"/>
@@ -5606,10 +5606,10 @@
     </row>
     <row r="60" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="2"/>
@@ -5691,10 +5691,10 @@
     </row>
     <row r="61" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="2"/>
@@ -5776,10 +5776,10 @@
     </row>
     <row r="62" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="2"/>
@@ -5861,10 +5861,10 @@
     </row>
     <row r="63" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="2"/>
@@ -5946,10 +5946,10 @@
     </row>
     <row r="64" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="2"/>
@@ -6031,10 +6031,10 @@
     </row>
     <row r="65" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="2"/>
@@ -6116,10 +6116,10 @@
     </row>
     <row r="66" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="2"/>
@@ -6201,10 +6201,10 @@
     </row>
     <row r="67" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="2"/>
@@ -6286,10 +6286,10 @@
     </row>
     <row r="68" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="2"/>
@@ -6371,10 +6371,10 @@
     </row>
     <row r="69" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="2"/>
@@ -6456,10 +6456,10 @@
     </row>
     <row r="70" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="2"/>
@@ -6541,10 +6541,10 @@
     </row>
     <row r="71" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="2"/>
@@ -6626,10 +6626,10 @@
     </row>
     <row r="72" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="2"/>
@@ -6711,10 +6711,10 @@
     </row>
     <row r="73" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="2"/>
@@ -6796,10 +6796,10 @@
     </row>
     <row r="74" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="2"/>
@@ -6881,10 +6881,10 @@
     </row>
     <row r="75" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="2"/>
@@ -6966,10 +6966,10 @@
     </row>
     <row r="76" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="2"/>
@@ -7051,10 +7051,10 @@
     </row>
     <row r="77" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="2"/>
@@ -7136,10 +7136,10 @@
     </row>
     <row r="78" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="2"/>
@@ -7221,10 +7221,10 @@
     </row>
     <row r="79" spans="1:80" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="2"/>
@@ -20011,7 +20011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -20023,7 +20023,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>0</v>
@@ -20031,106 +20031,106 @@
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B3" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>13</v>
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>84</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+    </row>
+    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>16</v>
+      <c r="B7" s="10" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>16</v>
+      <c r="B8" s="10" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>16</v>
+      <c r="B9" s="10" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>16</v>
+      <c r="B10" s="10" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>16</v>
+      <c r="B11" s="10" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>16</v>
+      <c r="B12" s="10" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>16</v>
+      <c r="B13" s="10" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>93</v>
-      </c>
       <c r="B14" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
